--- a/cluster_groupings.xlsx
+++ b/cluster_groupings.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SMethkupally\Documents\python summary dashboard\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43E390A8-587E-4AD1-8517-CCBB68E5C888}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C70E932E-55CC-42A8-BDDD-E9275711572F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="11520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$S$196</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -1085,7 +1088,7 @@
   <dimension ref="A1:S196"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U13" sqref="U13"/>
+      <selection activeCell="T160" sqref="T160"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10986,7 +10989,7 @@
         <v>208</v>
       </c>
       <c r="S165">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="166" spans="1:19" x14ac:dyDescent="0.25">
@@ -12850,6 +12853,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:S196" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>